--- a/data/trans_camb/P8_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P8_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 6,31</t>
+          <t>-8,39; 7,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 7,25</t>
+          <t>-9,35; 5,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 7,82</t>
+          <t>-8,74; 6,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 6,81</t>
+          <t>-9,49; 7,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 5,19</t>
+          <t>-12,75; 9,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 5,89</t>
+          <t>-12,77; 9,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 4,7</t>
+          <t>-12,44; 10,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 4,06</t>
+          <t>-11,34; 11,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 4,28</t>
+          <t>-8,57; 5,83</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; 5,63</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-8,7; 6,17</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 7,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>-7,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>-16,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,98%</t>
+          <t>-14,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,77%</t>
+          <t>-14,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-21,92%</t>
+          <t>-20,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,23%</t>
+          <t>-19,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>-14,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,17%</t>
+          <t>-5,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-14,55%</t>
+          <t>-17,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-19,66%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-15,56%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-6,18%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-72,59; 172,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-70,5; 197,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,37; 209,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,5; 96,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,59; 75,24</t>
+          <t>-86,61; 262,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,08; 76,1</t>
+          <t>-86,99; 251,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-54,48; 69,48</t>
+          <t>-85,3; 301,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,97; 63,38</t>
+          <t>-80,13; 291,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-55,86; 63,5</t>
+          <t>-79,63; 182,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-80,57; 174,72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-78,79; 196,24</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-75,6; 174,11</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5,04</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,27</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,66</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-2,86</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-3,34</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,96</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 4,9</t>
+          <t>-3,25; 5,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 4,7</t>
+          <t>-3,38; 5,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,25</t>
+          <t>-3,58; 4,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 1,11</t>
+          <t>0,17; 10,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 0,87</t>
+          <t>-6,13; 5,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 0,35</t>
+          <t>-6,14; 5,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,94</t>
+          <t>-6,14; 5,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,66</t>
+          <t>-3,05; 10,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 1,21</t>
+          <t>-3,6; 3,7</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 3,57</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,92; 2,97</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 8,25</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>33,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-32,96%</t>
+          <t>160,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-35,36%</t>
+          <t>-6,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,36%</t>
+          <t>-7,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,65%</t>
+          <t>-11,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,41%</t>
+          <t>38,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-22,14%</t>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-4,78%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>69,18%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,99; 119,98</t>
+          <t>-69,88; 368,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-45,54; 108,44</t>
+          <t>-70,48; 417,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-48,94; 94,39</t>
+          <t>-73,64; 371,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-66,41; 21,84</t>
+          <t>-19,09; 771,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,16; 18,52</t>
+          <t>-54,69; 97,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,02; 8,51</t>
+          <t>-55,16; 95,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,64; 38,51</t>
+          <t>-55,53; 94,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,93; 34,07</t>
+          <t>-29,54; 179,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,18; 24,28</t>
+          <t>-44,43; 94,72</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-45,81; 88,97</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-51,88; 76,03</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 209,91</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 8,27</t>
+          <t>-9,08; 10,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 9,41</t>
+          <t>-8,18; 12,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 9,22</t>
+          <t>-7,55; 12,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,45</t>
+          <t>-6,53; 13,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 6,33</t>
+          <t>-2,83; 4,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 6,62</t>
+          <t>-0,8; 7,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 3,98</t>
+          <t>-0,23; 8,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 5,99</t>
+          <t>1,05; 11,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 6,45</t>
+          <t>-4,17; 6,08</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 8,5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 9,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 10,34</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>117,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>144,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>205,13%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>46,32%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>63,79%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>91,27%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,1; 174,13</t>
+          <t>-74,12; 223,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,13; 194,25</t>
+          <t>-70,23; 242,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-51,94; 196,56</t>
+          <t>-59,69; 244,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,86; 218,82</t>
+          <t>-55,18; 258,81</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,12; 376,71</t>
+          <t>-70,5; 456,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 384,2</t>
+          <t>-36,88; 694,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-52,15; 112,17</t>
+          <t>-24,62; 756,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 163,56</t>
+          <t>4,33; 951,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 173,86</t>
+          <t>-58,94; 175,8</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-39,99; 236,67</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-26,87; 263,67</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-17,62; 295,71</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 3,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 3,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-14,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,8; 65,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 77,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 72,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 26,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,63; 33,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,87; 33,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,34; 26,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 36,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 34,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,68</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 5,52</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 5,97</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 5,21</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 8,26</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 3,14</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 4,18</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 4,51</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 7,87</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 2,84</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 3,69</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 3,71</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 6,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12,49%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>19,89%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>65,12%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-2,9%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16,5%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>59,88%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>61,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-48,01; 151,17</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-45,98; 161,41</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-44,49; 143,95</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-15,4; 228,83</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-42,18; 74,08</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-32,05; 91,31</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-29,25; 103,86</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 180,32</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-35,81; 60,5</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-28,76; 82,39</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-25,33; 81,61</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 149,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
